--- a/INTLINE/data/158/SBJ/EMPL/lt01-c30.xlsx
+++ b/INTLINE/data/158/SBJ/EMPL/lt01-c30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2022年\0329 労働力調査（基本集計）2月分\data\roudou\longtime\zuhyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ROUCHO\16インターネット\19 提出用\2022年\0531 労働力調査（基本集計）4月分\data\roudou\longtime\zuhyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905CDDE-9DD9-4B72-BDBD-F0E7AD5AE37B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9CDE8-A3BD-4349-B27E-F9DB410AC504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17795,24 +17795,60 @@
         <v>14</v>
       </c>
       <c r="D252" s="30"/>
-      <c r="E252" s="85"/>
-      <c r="F252" s="85"/>
-      <c r="G252" s="85"/>
-      <c r="H252" s="86"/>
-      <c r="I252" s="86"/>
-      <c r="J252" s="86"/>
-      <c r="K252" s="86"/>
-      <c r="L252" s="86"/>
-      <c r="M252" s="86"/>
-      <c r="N252" s="86"/>
-      <c r="O252" s="86"/>
-      <c r="P252" s="86"/>
-      <c r="Q252" s="86"/>
-      <c r="R252" s="86"/>
-      <c r="S252" s="86"/>
-      <c r="T252" s="86"/>
-      <c r="U252" s="86"/>
-      <c r="V252" s="86"/>
+      <c r="E252" s="85">
+        <v>6684</v>
+      </c>
+      <c r="F252" s="85">
+        <v>179</v>
+      </c>
+      <c r="G252" s="85">
+        <v>6506</v>
+      </c>
+      <c r="H252" s="86">
+        <v>492</v>
+      </c>
+      <c r="I252" s="86">
+        <v>1053</v>
+      </c>
+      <c r="J252" s="86">
+        <v>264</v>
+      </c>
+      <c r="K252" s="86">
+        <v>355</v>
+      </c>
+      <c r="L252" s="86">
+        <v>1050</v>
+      </c>
+      <c r="M252" s="86">
+        <v>153</v>
+      </c>
+      <c r="N252" s="86">
+        <v>144</v>
+      </c>
+      <c r="O252" s="86">
+        <v>249</v>
+      </c>
+      <c r="P252" s="86">
+        <v>364</v>
+      </c>
+      <c r="Q252" s="86">
+        <v>223</v>
+      </c>
+      <c r="R252" s="86">
+        <v>339</v>
+      </c>
+      <c r="S252" s="86">
+        <v>904</v>
+      </c>
+      <c r="T252" s="86">
+        <v>52</v>
+      </c>
+      <c r="U252" s="86">
+        <v>451</v>
+      </c>
+      <c r="V252" s="86">
+        <v>258</v>
+      </c>
     </row>
     <row r="253" spans="1:22" ht="14.25" customHeight="1">
       <c r="A253" s="39"/>
@@ -17823,24 +17859,60 @@
         <v>15</v>
       </c>
       <c r="D253" s="30"/>
-      <c r="E253" s="85"/>
-      <c r="F253" s="85"/>
-      <c r="G253" s="85"/>
-      <c r="H253" s="86"/>
-      <c r="I253" s="86"/>
-      <c r="J253" s="86"/>
-      <c r="K253" s="86"/>
-      <c r="L253" s="86"/>
-      <c r="M253" s="86"/>
-      <c r="N253" s="86"/>
-      <c r="O253" s="86"/>
-      <c r="P253" s="86"/>
-      <c r="Q253" s="86"/>
-      <c r="R253" s="86"/>
-      <c r="S253" s="86"/>
-      <c r="T253" s="86"/>
-      <c r="U253" s="86"/>
-      <c r="V253" s="86"/>
+      <c r="E253" s="85">
+        <v>6727</v>
+      </c>
+      <c r="F253" s="85">
+        <v>197</v>
+      </c>
+      <c r="G253" s="85">
+        <v>6530</v>
+      </c>
+      <c r="H253" s="86">
+        <v>478</v>
+      </c>
+      <c r="I253" s="86">
+        <v>1027</v>
+      </c>
+      <c r="J253" s="86">
+        <v>273</v>
+      </c>
+      <c r="K253" s="86">
+        <v>352</v>
+      </c>
+      <c r="L253" s="86">
+        <v>1032</v>
+      </c>
+      <c r="M253" s="86">
+        <v>150</v>
+      </c>
+      <c r="N253" s="86">
+        <v>138</v>
+      </c>
+      <c r="O253" s="86">
+        <v>252</v>
+      </c>
+      <c r="P253" s="86">
+        <v>365</v>
+      </c>
+      <c r="Q253" s="86">
+        <v>219</v>
+      </c>
+      <c r="R253" s="86">
+        <v>364</v>
+      </c>
+      <c r="S253" s="86">
+        <v>946</v>
+      </c>
+      <c r="T253" s="86">
+        <v>54</v>
+      </c>
+      <c r="U253" s="86">
+        <v>464</v>
+      </c>
+      <c r="V253" s="86">
+        <v>254</v>
+      </c>
     </row>
     <row r="254" spans="1:22" ht="14.25" customHeight="1">
       <c r="A254" s="13"/>
